--- a/imo-re.xlsx
+++ b/imo-re.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="23940" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -170,6 +170,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">/-!
 # International Mathematical Olympiad 2006, Problem 3
 </t>
@@ -478,9 +485,6 @@
   </si>
   <si>
     <t>174.53698420524597</t>
-  </si>
-  <si>
-    <t>看不懂</t>
   </si>
   <si>
     <t>Imo2018P3</t>
@@ -660,13 +664,20 @@
     <t>169.49941897392273</t>
   </si>
   <si>
-    <t>看不懂，感觉bench不一定对</t>
+    <t>翻译错</t>
   </si>
   <si>
     <t>Imo2024P5</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">/-!
 # International Mathematical Olympiad 2024, Problem 5
 Turbo the snail plays a game on a board with $2024$ rows and $2023$ columns. There are hidden
@@ -707,6 +718,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">/-! ### Definitions for setting up the problem -/
 -- There are N monsters, N+1 columns and N+2 rows.
 variable {N : ℕ}
@@ -1124,6 +1142,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">abbrev </t>
     </r>
     <r>
@@ -1285,6 +1310,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">&lt;think&gt;Let me understand the problem statement first:
 1. We have a function f : ℝ → ℝ
 2. The function is called "very convex" if it satisfies:
@@ -1341,7 +1373,7 @@
     <t>50.117738246917725</t>
   </si>
   <si>
-    <t>go给了def！</t>
+    <t>go给了def！且做对</t>
   </si>
   <si>
     <t>Imo2022P3</t>
@@ -1475,6 +1507,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">/-!
 # International Mathematical Olympiad 1978, Problem 1
 m and n are positive integers with m &lt; n.
@@ -1589,6 +1628,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">/-!
 # International Mathematical Olympiad 2004, Problem 2
 </t>
@@ -2075,6 +2121,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">/-!
 # International Mathematical Olympiad 1979, Problem 5
 </t>
@@ -2389,7 +2442,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2400,13 +2453,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2911,148 +2957,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3430,11 +3476,11 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="2.625" customWidth="1"/>
@@ -3443,15 +3489,15 @@
     <col min="5" max="5" width="3.375" customWidth="1"/>
     <col min="6" max="6" width="3.25" customWidth="1"/>
     <col min="7" max="7" width="1.5" customWidth="1"/>
-    <col min="8" max="8" width="100" customWidth="1"/>
-    <col min="9" max="9" width="109.75" customWidth="1"/>
+    <col min="8" max="8" width="59.4519230769231" customWidth="1"/>
+    <col min="9" max="9" width="24.3557692307692" customWidth="1"/>
     <col min="10" max="10" width="5.75" customWidth="1"/>
     <col min="11" max="11" width="100" customWidth="1"/>
     <col min="12" max="12" width="2.25" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" spans="1:13">
+    <row r="1" ht="212" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3665,24 +3711,24 @@
         <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:14">
       <c r="A6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
@@ -3691,42 +3737,42 @@
         <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" t="s">
         <v>54</v>
-      </c>
-      <c r="N6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" ht="409" customHeight="1" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>16</v>
@@ -3735,36 +3781,36 @@
         <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" t="s">
         <v>61</v>
-      </c>
-      <c r="N7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" ht="409.5" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -3779,22 +3825,22 @@
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
@@ -3802,13 +3848,13 @@
     </row>
     <row r="9" ht="409.5" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -3823,22 +3869,22 @@
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
@@ -3846,10 +3892,10 @@
     </row>
     <row r="10" ht="409.5" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -3867,22 +3913,22 @@
         <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>32</v>
@@ -3890,10 +3936,10 @@
     </row>
     <row r="11" ht="409.5" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -3911,36 +3957,36 @@
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" t="s">
         <v>86</v>
-      </c>
-      <c r="N11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="1:13">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>15</v>
@@ -3955,30 +4001,30 @@
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="409.5" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
@@ -3996,22 +4042,22 @@
         <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N13" t="s">
         <v>32</v>
@@ -4019,13 +4065,13 @@
     </row>
     <row r="14" ht="409.5" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>26</v>
@@ -4040,22 +4086,22 @@
         <v>17</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N14" t="s">
         <v>32</v>
@@ -4063,19 +4109,19 @@
     </row>
     <row r="15" ht="409.5" spans="1:13">
       <c r="A15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>16</v>
@@ -4084,33 +4130,33 @@
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="409.5" spans="1:13">
       <c r="A16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -4125,39 +4171,39 @@
         <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" ht="409.5" spans="1:13">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
@@ -4166,30 +4212,30 @@
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" ht="409.5" spans="1:13">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -4207,33 +4253,33 @@
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" ht="409.5" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>26</v>
@@ -4248,22 +4294,22 @@
         <v>17</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="J19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N19" t="s">
         <v>32</v>
@@ -4271,19 +4317,19 @@
     </row>
     <row r="20" ht="409.5" spans="1:13">
       <c r="A20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
@@ -4292,30 +4338,30 @@
         <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" ht="409.5" spans="1:13">
       <c r="A21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -4333,22 +4379,22 @@
         <v>17</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
